--- a/data/BOSCHLTD.xlsx
+++ b/data/BOSCHLTD.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13329,6 +13329,84 @@
         <v>2795.12</v>
       </c>
     </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B498">
+        <v>22998.75</v>
+      </c>
+      <c r="C498">
+        <v>23280</v>
+      </c>
+      <c r="D498">
+        <v>22559.65</v>
+      </c>
+      <c r="E498">
+        <v>22960</v>
+      </c>
+      <c r="F498">
+        <v>22966.1</v>
+      </c>
+      <c r="G498">
+        <v>18162</v>
+      </c>
+      <c r="H498">
+        <v>4175.31</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B499">
+        <v>23020</v>
+      </c>
+      <c r="C499">
+        <v>23114.3</v>
+      </c>
+      <c r="D499">
+        <v>22376</v>
+      </c>
+      <c r="E499">
+        <v>22700</v>
+      </c>
+      <c r="F499">
+        <v>22680.4</v>
+      </c>
+      <c r="G499">
+        <v>30293</v>
+      </c>
+      <c r="H499">
+        <v>6880.62</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B500">
+        <v>22680</v>
+      </c>
+      <c r="C500">
+        <v>22899.95</v>
+      </c>
+      <c r="D500">
+        <v>22301</v>
+      </c>
+      <c r="E500">
+        <v>22335</v>
+      </c>
+      <c r="F500">
+        <v>22346.15</v>
+      </c>
+      <c r="G500">
+        <v>17356</v>
+      </c>
+      <c r="H500">
+        <v>3898.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
